--- a/biology/Zoologie/Barbican_à_tête_noire/Barbican_à_tête_noire.xlsx
+++ b/biology/Zoologie/Barbican_à_tête_noire/Barbican_à_tête_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_t%C3%AAte_noire</t>
+          <t>Barbican_à_tête_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricholaema melanocephala
 Le Barbican à tête noire (Tricholaema melanocephala) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur le Soudan, l'Éthiopie, l'Érythrée, Djibouti, la Somalie, le Kenya, l'Ouganda et la Tanzanie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_t%C3%AAte_noire</t>
+          <t>Barbican_à_tête_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par quatre sous-espèces :
 Tricholaema melanocephala blandi Lort Phillips, 1897 ;
